--- a/layouts.xlsx
+++ b/layouts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APPS\Web\ddf-layouts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APPS\Web\ddf-layouts2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD8A3E8-29C0-4D9D-8780-7118A1467DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C396D2B-D226-4852-A7E5-C017051D05A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7030" yWindow="2070" windowWidth="25440" windowHeight="16070" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDF" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="1240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="1244">
   <si>
     <t>Layout</t>
   </si>
@@ -4540,6 +4540,18 @@
   </si>
   <si>
     <t>T3ArrForecourt_DM103.mp4</t>
+  </si>
+  <si>
+    <t>CB_DM504_DM505_DM506.mp4</t>
+  </si>
+  <si>
+    <t>CA_DM801 Innov8 part1.mp4</t>
+  </si>
+  <si>
+    <t>CA_DM801 Innov8 part2.mp4</t>
+  </si>
+  <si>
+    <t>CA_DM801 Innov8.mp4 part1+part2</t>
   </si>
 </sst>
 </file>
@@ -16051,7 +16063,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16166,7 +16178,7 @@
     </row>
     <row r="5" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>1225</v>
+        <v>1241</v>
       </c>
       <c r="B5" s="9">
         <v>3648</v>
@@ -16187,7 +16199,7 @@
     </row>
     <row r="6" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>1226</v>
+        <v>1242</v>
       </c>
       <c r="B6" s="9">
         <v>2048</v>
@@ -16208,7 +16220,7 @@
     </row>
     <row r="7" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>1227</v>
+        <v>1243</v>
       </c>
       <c r="B7" s="9">
         <v>5696</v>
@@ -16334,7 +16346,7 @@
     </row>
     <row r="13" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>1232</v>
+        <v>1240</v>
       </c>
       <c r="B13" s="13">
         <v>1920</v>
